--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_529.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_529.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32215-d76537-Reviews-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Claremont-CA.h27452.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529166380278&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=a80655e7-3be4-497c-bf30-0d308b8e52e9&amp;mctc=9&amp;exp_dp=81.43&amp;exp_ts=1529166380888&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_529.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_529.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,474 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r570212213-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>32215</t>
+  </si>
+  <si>
+    <t>76537</t>
+  </si>
+  <si>
+    <t>570212213</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Solid basic accomodations</t>
+  </si>
+  <si>
+    <t>Just as advertised: clean and comfortable. The only amenity I'd really want that they don't supply is shampoo in the bathrooms. Otherwise this was just fine for our needs, with friendly service. Walking distance to a variety of eating places and a short drive to the colleges we came to visit. Good value for the price.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r569974276-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>569974276</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Never stay here!  They change their rates!</t>
+  </si>
+  <si>
+    <t>I booked through Hotels.com for room with 2 beds.  On check in, they said I had not reserved the room for 2 people.  On Hotels.com, you can check right now, the listing is for 2 people at the same price.  They insisted on an additional fee for my wife.  When I said I would protest, they threatened to cancel my reservation and kick me out!  This was at 8pm after I had arranged for a LATE check in on the Thursday before Easter!  NEVER stay here if you can avoid it.  They should be taken of all reservation systems to avoid this deception later!  The room was also dirty.  I wore my socks and they were dirty after wearing them.  Also, you looked at a dirty wall when you went to the bathroom!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Claremont, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>I booked through Hotels.com for room with 2 beds.  On check in, they said I had not reserved the room for 2 people.  On Hotels.com, you can check right now, the listing is for 2 people at the same price.  They insisted on an additional fee for my wife.  When I said I would protest, they threatened to cancel my reservation and kick me out!  This was at 8pm after I had arranged for a LATE check in on the Thursday before Easter!  NEVER stay here if you can avoid it.  They should be taken of all reservation systems to avoid this deception later!  The room was also dirty.  I wore my socks and they were dirty after wearing them.  Also, you looked at a dirty wall when you went to the bathroom!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r564915289-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>564915289</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Fair at best</t>
+  </si>
+  <si>
+    <t>Room was spartan but clean. There was no breakfast and  not enough toilet paper. There was a plastic bag covering the smoke detector- a danger. Noise was a problem. The location is good and the grounds well kept. Stay here only if you need to be in  Claremont and can’t pay more. MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Room was spartan but clean. There was no breakfast and  not enough toilet paper. There was a plastic bag covering the smoke detector- a danger. Noise was a problem. The location is good and the grounds well kept. Stay here only if you need to be in  Claremont and can’t pay more. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r534143455-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>534143455</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>BAREBONES</t>
+  </si>
+  <si>
+    <t>CONVENIENT LOCATION JUST OFF THE FREEWAY - PROBLEM  JUST OFF THE FREEWAY!!!!! NOISY!!The rooms have been upgraded but in a bare bones Ikea sort of way. The "closet" was a metal and canvas affair that looked like it came from a thrift shop.The exterior needs maintenance. Apparently because it is a low cost, the place was crowded and the parking was limited.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Steven M, Manager at Motel 6 Claremont, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>CONVENIENT LOCATION JUST OFF THE FREEWAY - PROBLEM  JUST OFF THE FREEWAY!!!!! NOISY!!The rooms have been upgraded but in a bare bones Ikea sort of way. The "closet" was a metal and canvas affair that looked like it came from a thrift shop.The exterior needs maintenance. Apparently because it is a low cost, the place was crowded and the parking was limited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r534130913-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>534130913</t>
+  </si>
+  <si>
+    <t>A place to spend a week at....</t>
+  </si>
+  <si>
+    <t>I most recently  stayed here for more than a week due to waiting on a permanent residence. That being said,  I checked in and noticed the Motel was professionally staffed and the grounds were very well maintained. After opening my door the room was clean and welcoming. There cleaning staff is cordial and not intrusive on your privacy. Over all I can say if you are seeking a short term stay ,feel free to book here..MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>I most recently  stayed here for more than a week due to waiting on a permanent residence. That being said,  I checked in and noticed the Motel was professionally staffed and the grounds were very well maintained. After opening my door the room was clean and welcoming. There cleaning staff is cordial and not intrusive on your privacy. Over all I can say if you are seeking a short term stay ,feel free to book here..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r526603393-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>526603393</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Poor wifi</t>
+  </si>
+  <si>
+    <t>The motel was easy to find. Location seems safe. Staff was very friendly and helpful. The wireless network was very slow and the staff were unable to help. Fairly clean and spacious. Would recommend if it wasn't for the wireless network.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>The motel was easy to find. Location seems safe. Staff was very friendly and helpful. The wireless network was very slow and the staff were unable to help. Fairly clean and spacious. Would recommend if it wasn't for the wireless network.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r488446366-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>488446366</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Great place for easy and quick overnight stay</t>
+  </si>
+  <si>
+    <t>We needed a room to just sleep in we arrived at 11 PM and left at 7 AM. This was a great option.  I was pleasantly surprised that the room we got on the pool side had no carpet but laminate wood looking floor. Two big clean beds. Very spacious. The bathroom had been remodeled as well, the tub was clean, curtain and sink area looked nice. There was still some areas on doors and walls where you saw patch work of hole repairs. The fridge in the corner by the sink was covered in paint spills, and had no shelves inside, but at least it worked and was cold. When we checked in, you could see that the lobby area had been remodeled as well. I asked for a bathroom when we first arrived, and was directed to one in the room where they serve coffee (only) for breakfast. The bathroom was really bad and dirty so I just left. The room itself desperately need a remodel too. If I had walked in and only seen this part, I would have not booked here, afraid the rest of the hotel was in the same condition. But I had read other reviews of nice clean remodeled rooms, so I gave it a chance. It is a great quick affordable place for overnight stay. There is also a large clean-looking pool with lots of space. Didn't go close, just saw it...We needed a room to just sleep in we arrived at 11 PM and left at 7 AM. This was a great option.  I was pleasantly surprised that the room we got on the pool side had no carpet but laminate wood looking floor. Two big clean beds. Very spacious. The bathroom had been remodeled as well, the tub was clean, curtain and sink area looked nice. There was still some areas on doors and walls where you saw patch work of hole repairs. The fridge in the corner by the sink was covered in paint spills, and had no shelves inside, but at least it worked and was cold. When we checked in, you could see that the lobby area had been remodeled as well. I asked for a bathroom when we first arrived, and was directed to one in the room where they serve coffee (only) for breakfast. The bathroom was really bad and dirty so I just left. The room itself desperately need a remodel too. If I had walked in and only seen this part, I would have not booked here, afraid the rest of the hotel was in the same condition. But I had read other reviews of nice clean remodeled rooms, so I gave it a chance. It is a great quick affordable place for overnight stay. There is also a large clean-looking pool with lots of space. Didn't go close, just saw it from outside our room. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>We needed a room to just sleep in we arrived at 11 PM and left at 7 AM. This was a great option.  I was pleasantly surprised that the room we got on the pool side had no carpet but laminate wood looking floor. Two big clean beds. Very spacious. The bathroom had been remodeled as well, the tub was clean, curtain and sink area looked nice. There was still some areas on doors and walls where you saw patch work of hole repairs. The fridge in the corner by the sink was covered in paint spills, and had no shelves inside, but at least it worked and was cold. When we checked in, you could see that the lobby area had been remodeled as well. I asked for a bathroom when we first arrived, and was directed to one in the room where they serve coffee (only) for breakfast. The bathroom was really bad and dirty so I just left. The room itself desperately need a remodel too. If I had walked in and only seen this part, I would have not booked here, afraid the rest of the hotel was in the same condition. But I had read other reviews of nice clean remodeled rooms, so I gave it a chance. It is a great quick affordable place for overnight stay. There is also a large clean-looking pool with lots of space. Didn't go close, just saw it...We needed a room to just sleep in we arrived at 11 PM and left at 7 AM. This was a great option.  I was pleasantly surprised that the room we got on the pool side had no carpet but laminate wood looking floor. Two big clean beds. Very spacious. The bathroom had been remodeled as well, the tub was clean, curtain and sink area looked nice. There was still some areas on doors and walls where you saw patch work of hole repairs. The fridge in the corner by the sink was covered in paint spills, and had no shelves inside, but at least it worked and was cold. When we checked in, you could see that the lobby area had been remodeled as well. I asked for a bathroom when we first arrived, and was directed to one in the room where they serve coffee (only) for breakfast. The bathroom was really bad and dirty so I just left. The room itself desperately need a remodel too. If I had walked in and only seen this part, I would have not booked here, afraid the rest of the hotel was in the same condition. But I had read other reviews of nice clean remodeled rooms, so I gave it a chance. It is a great quick affordable place for overnight stay. There is also a large clean-looking pool with lots of space. Didn't go close, just saw it from outside our room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r486633811-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>486633811</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Good for Motel 6</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for one night to attend a party in the area. The location was good, just off the freeway, near a gas station, several restaurants, etc. We didn't feel well near check out time, so we called for a late checkout time, but the hotel charges $10 an hour so I had to walk up to the front desk to pay for a late check out so we could lie in a little while longer. As soon as I was walking out the door to go to the front, hotel staff were asking if we were leaving, I said no, that we were checking out late. Then 15 min before our later check out time, a staff member knocked on our door to ask us if we were leaving. This was very annoying as we were trying to rest as long as we could before leaving. Other than that, the motel was nicer than some of the other locations I have stayed at. No dryer or toiletries, but it did have a fridge &amp; microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for one night to attend a party in the area. The location was good, just off the freeway, near a gas station, several restaurants, etc. We didn't feel well near check out time, so we called for a late checkout time, but the hotel charges $10 an hour so I had to walk up to the front desk to pay for a late check out so we could lie in a little while longer. As soon as I was walking out the door to go to the front, hotel staff were asking if we were leaving, I said no, that we were checking out late. Then 15 min before our later check out time, a staff member knocked on our door to ask us if we were leaving. This was very annoying as we were trying to rest as long as we could before leaving. Other than that, the motel was nicer than some of the other locations I have stayed at. No dryer or toiletries, but it did have a fridge &amp; microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r474289621-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>474289621</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>For a Motel 6, it's very good. Yet after all, it's a Motel 6</t>
+  </si>
+  <si>
+    <t>As the title suggested, this is a pretty nice Motel 6. It seems to have a major facelift recently. The rooms look very new and clean. New beds, new wood flooring, a nice table with 2 chairs. The bathroom looks new too.The location is great, at the center of everything, close to the highway and town center, many restaurants in the vicinity.The tradeoff: No shampoo (I don't know why, but no shampoo, just soap bars), towels looking old, no breakfast, no microwave, no coffee machine. Well, enough said.Overall, if you don't expect much, this is pretty good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>As the title suggested, this is a pretty nice Motel 6. It seems to have a major facelift recently. The rooms look very new and clean. New beds, new wood flooring, a nice table with 2 chairs. The bathroom looks new too.The location is great, at the center of everything, close to the highway and town center, many restaurants in the vicinity.The tradeoff: No shampoo (I don't know why, but no shampoo, just soap bars), towels looking old, no breakfast, no microwave, no coffee machine. Well, enough said.Overall, if you don't expect much, this is pretty good place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r426811255-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>426811255</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Good, no frills hotel</t>
+  </si>
+  <si>
+    <t>No frills here but the rooms are clean and spacious, and everything works (including the all important AC and wifi). Simple and easy, a good place to lay your head. Right off he interstate as well, so very convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>No frills here but the rooms are clean and spacious, and everything works (including the all important AC and wifi). Simple and easy, a good place to lay your head. Right off he interstate as well, so very convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r408536973-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>408536973</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Good enough for one night</t>
+  </si>
+  <si>
+    <t>We stayed here the night before taking our teen to her dorm at Pomona College. The check in went smoothly. The person who checked us in was very friendly.  That's the reason why this review got three stars. After that, the room and rest of the service should receive two stars. The room seemed very sparse and sterile - almost like a fancy hospital room. Maybe because the floors were not carpeted. In the bathroom area there was only one small bar of soap. No shampoo, conditioner or lotion. I know this hotel was economical but it can't cost too much to include maybe just one small bottle of shampoo. The sink area and toilet are separate which is nice. There is a small area near the sink area to hang clothes. It's not a closet or enclosed area. Just a couple bars with hangers. There's a small shelf underneath. The refrigerator and microwave looked clean but we didn't use either one. We wanted to watch some tv but the room didn't have a remote and the tv couldn't be used manually so we called for a remote and was told someone would be right up. Then we waited about 10 minutes. Since no one came we called again and was told that the person who was going to bring us the remote went on their break but will be up shortly. Almost her 10-15 minutes passed and still no...We stayed here the night before taking our teen to her dorm at Pomona College. The check in went smoothly. The person who checked us in was very friendly.  That's the reason why this review got three stars. After that, the room and rest of the service should receive two stars. The room seemed very sparse and sterile - almost like a fancy hospital room. Maybe because the floors were not carpeted. In the bathroom area there was only one small bar of soap. No shampoo, conditioner or lotion. I know this hotel was economical but it can't cost too much to include maybe just one small bottle of shampoo. The sink area and toilet are separate which is nice. There is a small area near the sink area to hang clothes. It's not a closet or enclosed area. Just a couple bars with hangers. There's a small shelf underneath. The refrigerator and microwave looked clean but we didn't use either one. We wanted to watch some tv but the room didn't have a remote and the tv couldn't be used manually so we called for a remote and was told someone would be right up. Then we waited about 10 minutes. Since no one came we called again and was told that the person who was going to bring us the remote went on their break but will be up shortly. Almost her 10-15 minutes passed and still no remote delivery. So we called a third time and offered to come down to pick up the remote but was told that someone was on their way. So after about another 5 minutes, someone did finally come. The air conditioner was loud but good with keeping the room cool. Next time I will make my reservations earlier and stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here the night before taking our teen to her dorm at Pomona College. The check in went smoothly. The person who checked us in was very friendly.  That's the reason why this review got three stars. After that, the room and rest of the service should receive two stars. The room seemed very sparse and sterile - almost like a fancy hospital room. Maybe because the floors were not carpeted. In the bathroom area there was only one small bar of soap. No shampoo, conditioner or lotion. I know this hotel was economical but it can't cost too much to include maybe just one small bottle of shampoo. The sink area and toilet are separate which is nice. There is a small area near the sink area to hang clothes. It's not a closet or enclosed area. Just a couple bars with hangers. There's a small shelf underneath. The refrigerator and microwave looked clean but we didn't use either one. We wanted to watch some tv but the room didn't have a remote and the tv couldn't be used manually so we called for a remote and was told someone would be right up. Then we waited about 10 minutes. Since no one came we called again and was told that the person who was going to bring us the remote went on their break but will be up shortly. Almost her 10-15 minutes passed and still no...We stayed here the night before taking our teen to her dorm at Pomona College. The check in went smoothly. The person who checked us in was very friendly.  That's the reason why this review got three stars. After that, the room and rest of the service should receive two stars. The room seemed very sparse and sterile - almost like a fancy hospital room. Maybe because the floors were not carpeted. In the bathroom area there was only one small bar of soap. No shampoo, conditioner or lotion. I know this hotel was economical but it can't cost too much to include maybe just one small bottle of shampoo. The sink area and toilet are separate which is nice. There is a small area near the sink area to hang clothes. It's not a closet or enclosed area. Just a couple bars with hangers. There's a small shelf underneath. The refrigerator and microwave looked clean but we didn't use either one. We wanted to watch some tv but the room didn't have a remote and the tv couldn't be used manually so we called for a remote and was told someone would be right up. Then we waited about 10 minutes. Since no one came we called again and was told that the person who was going to bring us the remote went on their break but will be up shortly. Almost her 10-15 minutes passed and still no remote delivery. So we called a third time and offered to come down to pick up the remote but was told that someone was on their way. So after about another 5 minutes, someone did finally come. The air conditioner was loud but good with keeping the room cool. Next time I will make my reservations earlier and stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r407665859-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>407665859</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Bizarre and awkward</t>
+  </si>
+  <si>
+    <t>They put us in a newly renovated section of the motel.  Found the room somewhat bizarre.   A large room with 2 queen beds on a linoleum floor with wood-like look, a table with 2 chairs and a flat TV mounted on the wall.   No night stands to put your stuff at night, no chest of draws for stuff, no closet for stuff, no flat surface launch pad near the door.  Had an alcove by sink area with some hooks to hang a few things up.   Plus the A/C kept quitting on us.  Over 5 nights had to tinker with the A/C a lot to get the compressor come on and stay on.   The one time we mentioned the problem to the front desk and maintenance, it was working.  AHHHGG.  Meanwhile, the fan kept running all night with no affect.   Mentioned the problem with the lack of a night stand and they put in a small table in another corner of the room..  would not fit between the beds.  We just left some of our stuff on the floor.  Had lots of problems getting the WiFi to work at any speed consistently.MoreShow less</t>
+  </si>
+  <si>
+    <t>They put us in a newly renovated section of the motel.  Found the room somewhat bizarre.   A large room with 2 queen beds on a linoleum floor with wood-like look, a table with 2 chairs and a flat TV mounted on the wall.   No night stands to put your stuff at night, no chest of draws for stuff, no closet for stuff, no flat surface launch pad near the door.  Had an alcove by sink area with some hooks to hang a few things up.   Plus the A/C kept quitting on us.  Over 5 nights had to tinker with the A/C a lot to get the compressor come on and stay on.   The one time we mentioned the problem to the front desk and maintenance, it was working.  AHHHGG.  Meanwhile, the fan kept running all night with no affect.   Mentioned the problem with the lack of a night stand and they put in a small table in another corner of the room..  would not fit between the beds.  We just left some of our stuff on the floor.  Had lots of problems getting the WiFi to work at any speed consistently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r370422151-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>370422151</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Decent basic accommodation</t>
+  </si>
+  <si>
+    <t>The price was right compared to other hotels in the area. No major complaints but a few minor ones, which are probably par for the course for a motel at this level. There were other guests talking loudly right outside my room until way past midnight (on a week night stay). The shower had major drainage issues. The bath towels were tiny. One of the lamps wasn't working. And the desk in the room showed major wear. But things were fine otherwise. I liked having a Starbucks in the same parking lot!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>The price was right compared to other hotels in the area. No major complaints but a few minor ones, which are probably par for the course for a motel at this level. There were other guests talking loudly right outside my room until way past midnight (on a week night stay). The shower had major drainage issues. The bath towels were tiny. One of the lamps wasn't working. And the desk in the room showed major wear. But things were fine otherwise. I liked having a Starbucks in the same parking lot!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r367951588-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>367951588</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Nice visit</t>
+  </si>
+  <si>
+    <t>This used to be the Claremont Inn, now it's a Motel 6.  I was there to attend dog shows held on the hotel grounds.  The staff really went out of there way to make us feel welcome.  Great room with laminate floor.  No carpet!  I loved that.  Room was very spacious and grounds well maintained.  Numerous restaurants within walking distance too.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This used to be the Claremont Inn, now it's a Motel 6.  I was there to attend dog shows held on the hotel grounds.  The staff really went out of there way to make us feel welcome.  Great room with laminate floor.  No carpet!  I loved that.  Room was very spacious and grounds well maintained.  Numerous restaurants within walking distance too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r329849578-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>329849578</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel--Terrible Plumbing Issues</t>
+  </si>
+  <si>
+    <t>I originally gave this Motel 6; Four Stars!! However; upon having multiple lavatory issues with plumbing, decided to give the hotel an average rating!!  Maintenance attempted to correct issues, yet; problems reappeared within several days.  Finally, a decision to switch rooms was the best decision.  Hotel staff made some effort to fix issues.    Writing to Corporate Customer Service for corrective action proved to be a waste of time!!!    MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>I originally gave this Motel 6; Four Stars!! However; upon having multiple lavatory issues with plumbing, decided to give the hotel an average rating!!  Maintenance attempted to correct issues, yet; problems reappeared within several days.  Finally, a decision to switch rooms was the best decision.  Hotel staff made some effort to fix issues.    Writing to Corporate Customer Service for corrective action proved to be a waste of time!!!    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r250931623-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>250931623</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Good price for decent room and friendly service</t>
+  </si>
+  <si>
+    <t>For the price it was well worth it. We had a nice room facing the pool, which I recommend.  We stayed two weeks due to renovations to our home, I live in Claremont and I have stayed at all the hotels in the area. This place is not an upscale hotel but a decent place if you have an extended stay on a budget. No noise, staff was always nice and friendly. Clean rooms, free parking, tennis courts, dog friendly (with an area near the courts to run and play). The workout room needs new equipment and the pool needs to be heated. It is near a major highway so there is car traffic/noise but you are inside and away from the major intersection at the entrance. If you are facing the pool, you will hear no noise from the highway. Gas station and McDs right there too, so is Starbucks for a quick fill up and coffee before you head out.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Steven M, General Manager at Motel 6 Claremont, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>For the price it was well worth it. We had a nice room facing the pool, which I recommend.  We stayed two weeks due to renovations to our home, I live in Claremont and I have stayed at all the hotels in the area. This place is not an upscale hotel but a decent place if you have an extended stay on a budget. No noise, staff was always nice and friendly. Clean rooms, free parking, tennis courts, dog friendly (with an area near the courts to run and play). The workout room needs new equipment and the pool needs to be heated. It is near a major highway so there is car traffic/noise but you are inside and away from the major intersection at the entrance. If you are facing the pool, you will hear no noise from the highway. Gas station and McDs right there too, so is Starbucks for a quick fill up and coffee before you head out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r247151289-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>247151289</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Try somewhere else. Anywhere else.</t>
+  </si>
+  <si>
+    <t>The staff is friendly and they are trying to remodel as they are transitioning to becoming a Motel 6. However those doing the remodel seem to be cutting corners as our tub wasn't mounted properly. It was on an obvious angle and squeezed and creaked as you moved in it. The free breakfast is worth what you pay for it. And worst of all both nights we were there the other guests were extremely loud in the middle of the night. One night the people in the room next to us were talking extremely loud and had their tv volume high well past midnight. The other night had quite an argument between two guests that culminated in a broken window.We have stayed there one other time and these incidents, while more severe than anything else we have experienced, are not all that unexpected. I didn't feel that the motel was safe and if we were going to be there more than two nights would have left. We will not stay there again the next time we are in Claremont.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The staff is friendly and they are trying to remodel as they are transitioning to becoming a Motel 6. However those doing the remodel seem to be cutting corners as our tub wasn't mounted properly. It was on an obvious angle and squeezed and creaked as you moved in it. The free breakfast is worth what you pay for it. And worst of all both nights we were there the other guests were extremely loud in the middle of the night. One night the people in the room next to us were talking extremely loud and had their tv volume high well past midnight. The other night had quite an argument between two guests that culminated in a broken window.We have stayed there one other time and these incidents, while more severe than anything else we have experienced, are not all that unexpected. I didn't feel that the motel was safe and if we were going to be there more than two nights would have left. We will not stay there again the next time we are in Claremont.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r239807167-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>239807167</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Convenient Inland Empire location</t>
+  </si>
+  <si>
+    <t>We've stayed at many different hotels &amp; motels, and Hotel Claremont reminds us of the nostalgic highway motels we'd stop at as kids. Although there are not external frills, there were extras that actually were better than some of the high-line locations: TV had dvr, on-demand, plug-ins for computer hookup &amp; decent viewing channels. Shower was clean &amp; water flow could be properly regulated. Breakfast was basic, but the location is right next to Starbucks &amp; many restaurants. If you love Tennis - this is the place, as they have "many" courts on the property. The con was a hairdryer that did not work, but after calling it in ... 10 minutes later a super nice maintenance worker replaced it with a new model. We see some reviews that people were worried about the area, but our Jaguar stayed safe and we spoke with many people around &amp; everyone was pleasant &amp; cordial. We found our stay to be quiet &amp; comfortable. Antiques in the rooms were a unique switch from "hotel" furniture. All in all - a good stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We've stayed at many different hotels &amp; motels, and Hotel Claremont reminds us of the nostalgic highway motels we'd stop at as kids. Although there are not external frills, there were extras that actually were better than some of the high-line locations: TV had dvr, on-demand, plug-ins for computer hookup &amp; decent viewing channels. Shower was clean &amp; water flow could be properly regulated. Breakfast was basic, but the location is right next to Starbucks &amp; many restaurants. If you love Tennis - this is the place, as they have "many" courts on the property. The con was a hairdryer that did not work, but after calling it in ... 10 minutes later a super nice maintenance worker replaced it with a new model. We see some reviews that people were worried about the area, but our Jaguar stayed safe and we spoke with many people around &amp; everyone was pleasant &amp; cordial. We found our stay to be quiet &amp; comfortable. Antiques in the rooms were a unique switch from "hotel" furniture. All in all - a good stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r201446959-Motel_6_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>201446959</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Dog hotel</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful for showing dogs. Everyone is friendly and very helpful.Attend this show every year. Also a good choice for the Mission Circut show in Pomona Calif. My favorite venue. Thanks Steve, Betty and Brunetta.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful for showing dogs. Everyone is friendly and very helpful.Attend this show every year. Also a good choice for the Mission Circut show in Pomona Calif. My favorite venue. Thanks Steve, Betty and Brunetta.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1116,1237 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>160</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7579</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>176</v>
+      </c>
+      <c r="X20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_529.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_529.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>billrosenblatt</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>DrTCom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r569974276-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>I booked through Hotels.com for room with 2 beds.  On check in, they said I had not reserved the room for 2 people.  On Hotels.com, you can check right now, the listing is for 2 people at the same price.  They insisted on an additional fee for my wife.  When I said I would protest, they threatened to cancel my reservation and kick me out!  This was at 8pm after I had arranged for a LATE check in on the Thursday before Easter!  NEVER stay here if you can avoid it.  They should be taken of all reservation systems to avoid this deception later!  The room was also dirty.  I wore my socks and they were dirty after wearing them.  Also, you looked at a dirty wall when you went to the bathroom!More</t>
   </si>
   <si>
+    <t>fehlow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r564915289-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Room was spartan but clean. There was no breakfast and  not enough toilet paper. There was a plastic bag covering the smoke detector- a danger. Noise was a problem. The location is good and the grounds well kept. Stay here only if you need to be in  Claremont and can’t pay more. More</t>
   </si>
   <si>
+    <t>JUANTY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r534143455-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>CONVENIENT LOCATION JUST OFF THE FREEWAY - PROBLEM  JUST OFF THE FREEWAY!!!!! NOISY!!The rooms have been upgraded but in a bare bones Ikea sort of way. The "closet" was a metal and canvas affair that looked like it came from a thrift shop.The exterior needs maintenance. Apparently because it is a low cost, the place was crowded and the parking was limited.More</t>
   </si>
   <si>
+    <t>mark h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r534130913-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>I most recently  stayed here for more than a week due to waiting on a permanent residence. That being said,  I checked in and noticed the Motel was professionally staffed and the grounds were very well maintained. After opening my door the room was clean and welcoming. There cleaning staff is cordial and not intrusive on your privacy. Over all I can say if you are seeking a short term stay ,feel free to book here..More</t>
   </si>
   <si>
+    <t>Kjeltring534</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r526603393-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>The motel was easy to find. Location seems safe. Staff was very friendly and helpful. The wireless network was very slow and the staff were unable to help. Fairly clean and spacious. Would recommend if it wasn't for the wireless network.More</t>
   </si>
   <si>
+    <t>roatan4us</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r488446366-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>We needed a room to just sleep in we arrived at 11 PM and left at 7 AM. This was a great option.  I was pleasantly surprised that the room we got on the pool side had no carpet but laminate wood looking floor. Two big clean beds. Very spacious. The bathroom had been remodeled as well, the tub was clean, curtain and sink area looked nice. There was still some areas on doors and walls where you saw patch work of hole repairs. The fridge in the corner by the sink was covered in paint spills, and had no shelves inside, but at least it worked and was cold. When we checked in, you could see that the lobby area had been remodeled as well. I asked for a bathroom when we first arrived, and was directed to one in the room where they serve coffee (only) for breakfast. The bathroom was really bad and dirty so I just left. The room itself desperately need a remodel too. If I had walked in and only seen this part, I would have not booked here, afraid the rest of the hotel was in the same condition. But I had read other reviews of nice clean remodeled rooms, so I gave it a chance. It is a great quick affordable place for overnight stay. There is also a large clean-looking pool with lots of space. Didn't go close, just saw it...We needed a room to just sleep in we arrived at 11 PM and left at 7 AM. This was a great option.  I was pleasantly surprised that the room we got on the pool side had no carpet but laminate wood looking floor. Two big clean beds. Very spacious. The bathroom had been remodeled as well, the tub was clean, curtain and sink area looked nice. There was still some areas on doors and walls where you saw patch work of hole repairs. The fridge in the corner by the sink was covered in paint spills, and had no shelves inside, but at least it worked and was cold. When we checked in, you could see that the lobby area had been remodeled as well. I asked for a bathroom when we first arrived, and was directed to one in the room where they serve coffee (only) for breakfast. The bathroom was really bad and dirty so I just left. The room itself desperately need a remodel too. If I had walked in and only seen this part, I would have not booked here, afraid the rest of the hotel was in the same condition. But I had read other reviews of nice clean remodeled rooms, so I gave it a chance. It is a great quick affordable place for overnight stay. There is also a large clean-looking pool with lots of space. Didn't go close, just saw it from outside our room. More</t>
   </si>
   <si>
+    <t>tammybeck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r486633811-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -360,6 +384,9 @@
     <t>My boyfriend and I stayed here for one night to attend a party in the area. The location was good, just off the freeway, near a gas station, several restaurants, etc. We didn't feel well near check out time, so we called for a late checkout time, but the hotel charges $10 an hour so I had to walk up to the front desk to pay for a late check out so we could lie in a little while longer. As soon as I was walking out the door to go to the front, hotel staff were asking if we were leaving, I said no, that we were checking out late. Then 15 min before our later check out time, a staff member knocked on our door to ask us if we were leaving. This was very annoying as we were trying to rest as long as we could before leaving. Other than that, the motel was nicer than some of the other locations I have stayed at. No dryer or toiletries, but it did have a fridge &amp; microwave.More</t>
   </si>
   <si>
+    <t>Alex L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r474289621-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -381,6 +408,9 @@
     <t>As the title suggested, this is a pretty nice Motel 6. It seems to have a major facelift recently. The rooms look very new and clean. New beds, new wood flooring, a nice table with 2 chairs. The bathroom looks new too.The location is great, at the center of everything, close to the highway and town center, many restaurants in the vicinity.The tradeoff: No shampoo (I don't know why, but no shampoo, just soap bars), towels looking old, no breakfast, no microwave, no coffee machine. Well, enough said.Overall, if you don't expect much, this is pretty good place to stay.More</t>
   </si>
   <si>
+    <t>Comandante-of-Fun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r426811255-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -408,6 +438,9 @@
     <t>No frills here but the rooms are clean and spacious, and everything works (including the all important AC and wifi). Simple and easy, a good place to lay your head. Right off he interstate as well, so very convenient. More</t>
   </si>
   <si>
+    <t>mgeorge987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r408536973-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -435,6 +468,9 @@
     <t>We stayed here the night before taking our teen to her dorm at Pomona College. The check in went smoothly. The person who checked us in was very friendly.  That's the reason why this review got three stars. After that, the room and rest of the service should receive two stars. The room seemed very sparse and sterile - almost like a fancy hospital room. Maybe because the floors were not carpeted. In the bathroom area there was only one small bar of soap. No shampoo, conditioner or lotion. I know this hotel was economical but it can't cost too much to include maybe just one small bottle of shampoo. The sink area and toilet are separate which is nice. There is a small area near the sink area to hang clothes. It's not a closet or enclosed area. Just a couple bars with hangers. There's a small shelf underneath. The refrigerator and microwave looked clean but we didn't use either one. We wanted to watch some tv but the room didn't have a remote and the tv couldn't be used manually so we called for a remote and was told someone would be right up. Then we waited about 10 minutes. Since no one came we called again and was told that the person who was going to bring us the remote went on their break but will be up shortly. Almost her 10-15 minutes passed and still no...We stayed here the night before taking our teen to her dorm at Pomona College. The check in went smoothly. The person who checked us in was very friendly.  That's the reason why this review got three stars. After that, the room and rest of the service should receive two stars. The room seemed very sparse and sterile - almost like a fancy hospital room. Maybe because the floors were not carpeted. In the bathroom area there was only one small bar of soap. No shampoo, conditioner or lotion. I know this hotel was economical but it can't cost too much to include maybe just one small bottle of shampoo. The sink area and toilet are separate which is nice. There is a small area near the sink area to hang clothes. It's not a closet or enclosed area. Just a couple bars with hangers. There's a small shelf underneath. The refrigerator and microwave looked clean but we didn't use either one. We wanted to watch some tv but the room didn't have a remote and the tv couldn't be used manually so we called for a remote and was told someone would be right up. Then we waited about 10 minutes. Since no one came we called again and was told that the person who was going to bring us the remote went on their break but will be up shortly. Almost her 10-15 minutes passed and still no remote delivery. So we called a third time and offered to come down to pick up the remote but was told that someone was on their way. So after about another 5 minutes, someone did finally come. The air conditioner was loud but good with keeping the room cool. Next time I will make my reservations earlier and stay somewhere else.More</t>
   </si>
   <si>
+    <t>Jim T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r407665859-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>They put us in a newly renovated section of the motel.  Found the room somewhat bizarre.   A large room with 2 queen beds on a linoleum floor with wood-like look, a table with 2 chairs and a flat TV mounted on the wall.   No night stands to put your stuff at night, no chest of draws for stuff, no closet for stuff, no flat surface launch pad near the door.  Had an alcove by sink area with some hooks to hang a few things up.   Plus the A/C kept quitting on us.  Over 5 nights had to tinker with the A/C a lot to get the compressor come on and stay on.   The one time we mentioned the problem to the front desk and maintenance, it was working.  AHHHGG.  Meanwhile, the fan kept running all night with no affect.   Mentioned the problem with the lack of a night stand and they put in a small table in another corner of the room..  would not fit between the beds.  We just left some of our stuff on the floor.  Had lots of problems getting the WiFi to work at any speed consistently.More</t>
   </si>
   <si>
+    <t>Erik B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r370422151-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -480,6 +519,9 @@
     <t>The price was right compared to other hotels in the area. No major complaints but a few minor ones, which are probably par for the course for a motel at this level. There were other guests talking loudly right outside my room until way past midnight (on a week night stay). The shower had major drainage issues. The bath towels were tiny. One of the lamps wasn't working. And the desk in the room showed major wear. But things were fine otherwise. I liked having a Starbucks in the same parking lot!More</t>
   </si>
   <si>
+    <t>Candice Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r367951588-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>This used to be the Claremont Inn, now it's a Motel 6.  I was there to attend dog shows held on the hotel grounds.  The staff really went out of there way to make us feel welcome.  Great room with laminate floor.  No carpet!  I loved that.  Room was very spacious and grounds well maintained.  Numerous restaurants within walking distance too.More</t>
   </si>
   <si>
+    <t>Windman69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r329849578-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -528,6 +573,9 @@
     <t>I originally gave this Motel 6; Four Stars!! However; upon having multiple lavatory issues with plumbing, decided to give the hotel an average rating!!  Maintenance attempted to correct issues, yet; problems reappeared within several days.  Finally, a decision to switch rooms was the best decision.  Hotel staff made some effort to fix issues.    Writing to Corporate Customer Service for corrective action proved to be a waste of time!!!    More</t>
   </si>
   <si>
+    <t>Ann L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r250931623-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -555,6 +603,9 @@
     <t>For the price it was well worth it. We had a nice room facing the pool, which I recommend.  We stayed two weeks due to renovations to our home, I live in Claremont and I have stayed at all the hotels in the area. This place is not an upscale hotel but a decent place if you have an extended stay on a budget. No noise, staff was always nice and friendly. Clean rooms, free parking, tennis courts, dog friendly (with an area near the courts to run and play). The workout room needs new equipment and the pool needs to be heated. It is near a major highway so there is car traffic/noise but you are inside and away from the major intersection at the entrance. If you are facing the pool, you will hear no noise from the highway. Gas station and McDs right there too, so is Starbucks for a quick fill up and coffee before you head out.More</t>
   </si>
   <si>
+    <t>MichaelManning</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r247151289-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -576,6 +627,9 @@
     <t>The staff is friendly and they are trying to remodel as they are transitioning to becoming a Motel 6. However those doing the remodel seem to be cutting corners as our tub wasn't mounted properly. It was on an obvious angle and squeezed and creaked as you moved in it. The free breakfast is worth what you pay for it. And worst of all both nights we were there the other guests were extremely loud in the middle of the night. One night the people in the room next to us were talking extremely loud and had their tv volume high well past midnight. The other night had quite an argument between two guests that culminated in a broken window.We have stayed there one other time and these incidents, while more severe than anything else we have experienced, are not all that unexpected. I didn't feel that the motel was safe and if we were going to be there more than two nights would have left. We will not stay there again the next time we are in Claremont.More</t>
   </si>
   <si>
+    <t>bigpictureteam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r239807167-Motel_6_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -595,6 +649,9 @@
   </si>
   <si>
     <t>We've stayed at many different hotels &amp; motels, and Hotel Claremont reminds us of the nostalgic highway motels we'd stop at as kids. Although there are not external frills, there were extras that actually were better than some of the high-line locations: TV had dvr, on-demand, plug-ins for computer hookup &amp; decent viewing channels. Shower was clean &amp; water flow could be properly regulated. Breakfast was basic, but the location is right next to Starbucks &amp; many restaurants. If you love Tennis - this is the place, as they have "many" courts on the property. The con was a hairdryer that did not work, but after calling it in ... 10 minutes later a super nice maintenance worker replaced it with a new model. We see some reviews that people were worried about the area, but our Jaguar stayed safe and we spoke with many people around &amp; everyone was pleasant &amp; cordial. We found our stay to be quiet &amp; comfortable. Antiques in the rooms were a unique switch from "hotel" furniture. All in all - a good stay!More</t>
+  </si>
+  <si>
+    <t>Tina R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76537-r201446959-Motel_6_Claremont-Claremont_California.html</t>
@@ -1120,43 +1177,47 @@
       <c r="A2" t="n">
         <v>7579</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1176,50 +1237,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7579</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1237,56 +1302,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7579</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1298,56 +1367,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7579</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1365,56 +1438,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7579</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1432,56 +1509,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7579</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1493,56 +1574,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7579</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1554,56 +1639,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7579</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1619,56 +1708,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7579</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1686,56 +1779,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7579</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1747,56 +1844,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7579</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1814,56 +1915,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7579</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1879,56 +1984,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7579</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1944,56 +2053,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7579</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2011,47 +2124,51 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7579</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
@@ -2068,56 +2185,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7579</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2135,56 +2256,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7579</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2200,56 +2325,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7579</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2267,56 +2396,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7579</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="O20" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2338,13 +2471,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X20" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
